--- a/biology/Virologie/Mononegavirales/Mononegavirales.xlsx
+++ b/biology/Virologie/Mononegavirales/Mononegavirales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mononegavirales sont un ordre de virus à ARN monocaténaire de polarité négative (groupe V de la classification Baltimore) et à génome non segmenté. On y trouve notamment les familles suivantes :
 Bornaviridae (le virus de la maladie de Borna)
@@ -516,7 +528,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les virions possèdent une enveloppe et une hélice de nucléocapsides contenant de l'ARN génomique et une ARN polymérase ARN-dépendante. Le génome contient de 6 à 10 gènes, qui peuvent coder davantage de protéines à travers un processus d'édition des ARN messagers.
 </t>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,15 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrée
-Les particules virales pénètrent une cellule en se liant à un récepteur membranaire (par exemple l'acide sialique) et induisent la fusion entre l'enveloppe virale et la membrane cellulaire. Les éléments qui composent l'intérieur du virus pénètrent alors le cytoplasme.
-Synthèse d'ARNm
-La séquence génomique ne code pas des protéines. Les séquences complémentaires doivent d'abord être transcrites par de l'ARN-polymérase. Cette incapacité du génome à la production de protéines est dû au transport, par le virion, du RDRP. Ceci contraste avec le volet positif des virus qui peuvent synthétiser le RDRP une fois à l'intérieur de la cellule.
-Le RDRP libéré de la particule virale se lie à l'unique site promoteur à l'extrémité 3' du génome et commence la transcription. Il se crée une polarité de transcription, où les gènes près de l'extrémité 3' du génome sont transcrits en plus grande abondance, contrairement à celles vers l'extrémité 5' (les moins susceptibles d'être transcrites). le virus est en mesure d'utiliser cette polarité comme une forme de régulation transcriptionnelle. En conséquence, la plupart des génomes commencent avec le gène de la protéine nucléocapsides et finissent avec le gène de la RDRP.
-La synthèse des protéines et du génome
-Une fois que la production de l'ARNm a commencé, la protéine de traduction cellulaire est utilisée pour produire des protéines virales qui s'accumulent dans le cytoplasme.
-Assemblage et sortie
-Les nouvelles protéines virales et le génome s'auto-assemblent près de la membrane cellulaire. Les nouveaux virions utilisent la membrane à leur avantage, en prélevant une partie de celle-ci. La nouvelle particule virale infecte une autre cellule et le cycle se répète.
+          <t>Entrée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les particules virales pénètrent une cellule en se liant à un récepteur membranaire (par exemple l'acide sialique) et induisent la fusion entre l'enveloppe virale et la membrane cellulaire. Les éléments qui composent l'intérieur du virus pénètrent alors le cytoplasme.
 </t>
         </is>
       </c>
@@ -609,12 +623,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Édition de l'ARN</t>
+          <t>Cycle de vie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'édition de l'ARN est un mécanisme utilisé par certains membres du genre mononegavirales pour produire plusieurs protéines à partir d'un seul gène. Cela se produit lorsque l'ARN polymérase-ARN dépendante insère des résidus supplémentaires dans l'ARNm. Cela crée un décalage du cadre de lecture ouvert et modifie donc la séquence d'acides aminés codés par l'ARNm.
+          <t>Synthèse d'ARNm</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La séquence génomique ne code pas des protéines. Les séquences complémentaires doivent d'abord être transcrites par de l'ARN-polymérase. Cette incapacité du génome à la production de protéines est dû au transport, par le virion, du RDRP. Ceci contraste avec le volet positif des virus qui peuvent synthétiser le RDRP une fois à l'intérieur de la cellule.
+Le RDRP libéré de la particule virale se lie à l'unique site promoteur à l'extrémité 3' du génome et commence la transcription. Il se crée une polarité de transcription, où les gènes près de l'extrémité 3' du génome sont transcrits en plus grande abondance, contrairement à celles vers l'extrémité 5' (les moins susceptibles d'être transcrites). le virus est en mesure d'utiliser cette polarité comme une forme de régulation transcriptionnelle. En conséquence, la plupart des génomes commencent avec le gène de la protéine nucléocapsides et finissent avec le gène de la RDRP.
 </t>
         </is>
       </c>
@@ -640,10 +661,119 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La synthèse des protéines et du génome</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fois que la production de l'ARNm a commencé, la protéine de traduction cellulaire est utilisée pour produire des protéines virales qui s'accumulent dans le cytoplasme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mononegavirales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mononegavirales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Assemblage et sortie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nouvelles protéines virales et le génome s'auto-assemblent près de la membrane cellulaire. Les nouveaux virions utilisent la membrane à leur avantage, en prélevant une partie de celle-ci. La nouvelle particule virale infecte une autre cellule et le cycle se répète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mononegavirales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mononegavirales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Édition de l'ARN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition de l'ARN est un mécanisme utilisé par certains membres du genre mononegavirales pour produire plusieurs protéines à partir d'un seul gène. Cela se produit lorsque l'ARN polymérase-ARN dépendante insère des résidus supplémentaires dans l'ARNm. Cela crée un décalage du cadre de lecture ouvert et modifie donc la séquence d'acides aminés codés par l'ARNm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mononegavirales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mononegavirales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme avec d'autres rétrovirus, qui n'ont pas un intermédiaire ADN, les espèces de Mononegavirales sont capables d'évoluer à un rythme rapide. Un haut taux de mutation se produit dans la production de nouveaux génomes (jusqu'à 1 pour 1000 bases).
 </t>
